--- a/Genetic/rulex_results/Scoring_Rules_genetic_multiclass.xlsx
+++ b/Genetic/rulex_results/Scoring_Rules_genetic_multiclass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/lucas_rizzo_tudublin_ie/Documents/rulex/Multiclass/Genetic/rulex_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7367A1E6-2A48-4149-B348-FA272735466C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93E884D0-ED30-4269-A70B-9AB4B3AFD1F9}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{7367A1E6-2A48-4149-B348-FA272735466C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C65163FB-AB41-45DE-9FBE-38C71146CEA1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Error Max 0.050 Fold 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
   <si>
     <t># of conditions</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>SNHG3_1 &lt;= 9.243450</t>
-  </si>
-  <si>
-    <t>THOP1 &gt; 6.228695</t>
   </si>
   <si>
     <t>control_3389 &lt;= 8.199655</t>
@@ -569,18 +566,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -618,7 +619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -653,7 +654,7 @@
         <v>0.78082200000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -685,7 +686,7 @@
         <v>0.21917800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -723,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -758,7 +759,7 @@
         <v>0.60367899999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -790,7 +791,7 @@
         <v>0.39632099999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -838,14 +839,17 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -880,7 +884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -912,7 +916,7 @@
         <v>0.77142900000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -944,7 +948,7 @@
         <v>0.228571</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -979,7 +983,7 @@
         <v>0.63116399999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>0.368836</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1046,7 +1050,7 @@
         <v>0.59067400000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>0.40932600000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1123,17 +1127,20 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1168,7 +1175,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1194,13 +1201,13 @@
         <v>6.8966E-2</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2">
         <v>0.77142900000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1232,7 +1239,7 @@
         <v>0.228571</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1267,7 +1274,7 @@
         <v>0.61914499999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1299,7 +1306,7 @@
         <v>0.380855</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1331,7 +1338,7 @@
         <v>0.580345</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1363,7 +1370,7 @@
         <v>0.419655</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1407,26 +1414,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
@@ -1435,13 +1445,13 @@
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
         <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -1450,10 +1460,10 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1479,13 +1489,13 @@
         <v>6.8966E-2</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K2" s="2">
         <v>0.77142900000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1511,13 +1521,13 @@
         <v>3.4483E-2</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K3" s="2">
         <v>0.228571</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1543,16 +1553,16 @@
         <v>0.19697000000000001</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K4" s="2">
         <v>0.60184499999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1578,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K5" s="2">
         <v>0.39815499999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1610,13 +1620,13 @@
         <v>0.126582</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" s="2">
         <v>0.580345</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1642,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" s="2">
         <v>0.419655</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1674,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -1689,6 +1699,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="35e04e53-8035-4693-a7c1-f4caf4429e95" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="94dc1244-2250-4226-8a6d-024056f3e2cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AF64E39BDF063145A3CCF26D1014A5F5" ma:contentTypeVersion="17" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="80a98ef0f9b4d9116a370af2033599bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="94dc1244-2250-4226-8a6d-024056f3e2cb" xmlns:ns3="35e04e53-8035-4693-a7c1-f4caf4429e95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8da2e27824f9ad78ea0797750853939" ns2:_="" ns3:_="">
     <xsd:import namespace="94dc1244-2250-4226-8a6d-024056f3e2cb"/>
@@ -1937,27 +1967,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBA9803D-50EC-45A8-8FCE-51FD1A831F98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="35e04e53-8035-4693-a7c1-f4caf4429e95" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="94dc1244-2250-4226-8a6d-024056f3e2cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F1D5E22-DC2A-4BF6-92DE-AA439D003278}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="35e04e53-8035-4693-a7c1-f4caf4429e95"/>
+    <ds:schemaRef ds:uri="94dc1244-2250-4226-8a6d-024056f3e2cb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B666A923-811E-44A1-A19F-14EBB0511115}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1974,23 +2003,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBA9803D-50EC-45A8-8FCE-51FD1A831F98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F1D5E22-DC2A-4BF6-92DE-AA439D003278}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="35e04e53-8035-4693-a7c1-f4caf4429e95"/>
-    <ds:schemaRef ds:uri="94dc1244-2250-4226-8a6d-024056f3e2cb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>